--- a/Diseno/Trazabilidad_Componentes.xlsx
+++ b/Diseno/Trazabilidad_Componentes.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="TRAZABILIDAD_REQ_COMPONENTES" sheetId="1" r:id="rId1"/>
@@ -77,8 +77,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -192,6 +192,10 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -201,10 +205,6 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -223,7 +223,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="FEATURES"/>
@@ -970,7 +970,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1002,10 +1002,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1037,7 +1036,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1213,49 +1211,49 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:K80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G77" sqref="G77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="1.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="36.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="12.140625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.42578125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="11.140625" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="1.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.44140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="44.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="12.109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.44140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="11.109375" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="E2" s="10" t="str">
+    <row r="2" spans="2:11">
+      <c r="E2" s="12" t="str">
         <f>CATALOGO_ECS!B4</f>
         <v>APLICACIONES</v>
       </c>
-      <c r="F2" s="10"/>
-      <c r="G2" s="11" t="str">
+      <c r="F2" s="12"/>
+      <c r="G2" s="13" t="str">
         <f>CATALOGO_ECS!B6</f>
         <v>SERVICIOS</v>
       </c>
-      <c r="H2" s="11"/>
-      <c r="I2" s="12" t="str">
+      <c r="H2" s="13"/>
+      <c r="I2" s="14" t="str">
         <f>CATALOGO_ECS!B8</f>
         <v>COMPONENTES</v>
       </c>
-      <c r="J2" s="12"/>
+      <c r="J2" s="14"/>
       <c r="K2" s="9" t="str">
         <f>CATALOGO_ECS!B10</f>
         <v>DATOS</v>
       </c>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:11">
       <c r="B3" s="6" t="s">
         <v>0</v>
       </c>
@@ -1294,7 +1292,7 @@
         <v>BTM_MDS</v>
       </c>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:11">
       <c r="B4" s="2" t="str">
         <f>[1]FEATURES!$A$13</f>
         <v>FEAT-005</v>
@@ -1317,7 +1315,7 @@
       <c r="J4" s="9"/>
       <c r="K4" s="9"/>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:11">
       <c r="B5" s="2" t="str">
         <f>[1]FEATURES!$A$13</f>
         <v>FEAT-005</v>
@@ -1340,7 +1338,7 @@
       <c r="J5" s="9"/>
       <c r="K5" s="9"/>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:11">
       <c r="B6" s="2" t="str">
         <f>[1]FEATURES!$A$13</f>
         <v>FEAT-005</v>
@@ -1363,7 +1361,7 @@
       <c r="J6" s="9"/>
       <c r="K6" s="9"/>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:11">
       <c r="B7" s="2" t="str">
         <f>[1]FEATURES!$A$13</f>
         <v>FEAT-005</v>
@@ -1386,7 +1384,7 @@
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:11">
       <c r="B8" s="2" t="str">
         <f>[1]FEATURES!$A$13</f>
         <v>FEAT-005</v>
@@ -1409,7 +1407,7 @@
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:11">
       <c r="B9" s="2" t="str">
         <f>[1]FEATURES!$A$13</f>
         <v>FEAT-005</v>
@@ -1432,7 +1430,7 @@
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:11">
       <c r="B10" s="2" t="str">
         <f>[1]FEATURES!$A$13</f>
         <v>FEAT-005</v>
@@ -1455,7 +1453,7 @@
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:11">
       <c r="B11" s="2" t="str">
         <f>[1]FEATURES!$A$13</f>
         <v>FEAT-005</v>
@@ -1478,7 +1476,7 @@
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:11">
       <c r="B12" s="2" t="str">
         <f>[1]FEATURES!$A$13</f>
         <v>FEAT-005</v>
@@ -1501,7 +1499,7 @@
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:11">
       <c r="B13" s="2" t="str">
         <f>[1]FEATURES!$A$13</f>
         <v>FEAT-005</v>
@@ -1524,7 +1522,7 @@
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:11">
       <c r="B14" s="2" t="str">
         <f>[1]FEATURES!$A$13</f>
         <v>FEAT-005</v>
@@ -1547,7 +1545,7 @@
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:11">
       <c r="B15" s="2" t="str">
         <f>[1]FEATURES!$A$13</f>
         <v>FEAT-005</v>
@@ -1570,7 +1568,7 @@
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:11">
       <c r="B16" s="2" t="str">
         <f>[1]FEATURES!$A$13</f>
         <v>FEAT-005</v>
@@ -1593,7 +1591,7 @@
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:11">
       <c r="B17" s="2" t="str">
         <f>[1]FEATURES!$A$13</f>
         <v>FEAT-005</v>
@@ -1616,7 +1614,7 @@
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:11">
       <c r="B18" s="2" t="str">
         <f>[1]FEATURES!$A$13</f>
         <v>FEAT-005</v>
@@ -1639,7 +1637,7 @@
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:11">
       <c r="B19" s="2" t="str">
         <f>[1]FEATURES!$A$13</f>
         <v>FEAT-005</v>
@@ -1662,7 +1660,7 @@
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:11">
       <c r="B20" s="2" t="str">
         <f>[1]FEATURES!$A$13</f>
         <v>FEAT-005</v>
@@ -1685,7 +1683,7 @@
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:11">
       <c r="B21" s="2" t="str">
         <f>[1]FEATURES!$A$13</f>
         <v>FEAT-005</v>
@@ -1708,7 +1706,7 @@
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:11">
       <c r="B22" s="2" t="str">
         <f>[1]FEATURES!$A$13</f>
         <v>FEAT-005</v>
@@ -1731,7 +1729,7 @@
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:11">
       <c r="B23" s="2" t="str">
         <f>[1]FEATURES!$A$13</f>
         <v>FEAT-005</v>
@@ -1754,7 +1752,7 @@
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:11">
       <c r="B24" s="2" t="str">
         <f>[1]FEATURES!$A$13</f>
         <v>FEAT-005</v>
@@ -1777,7 +1775,7 @@
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:11">
       <c r="B25" s="2" t="str">
         <f>[1]FEATURES!$A$13</f>
         <v>FEAT-005</v>
@@ -1800,7 +1798,7 @@
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:11">
       <c r="B26" s="2" t="str">
         <f>[1]FEATURES!$A$13</f>
         <v>FEAT-005</v>
@@ -1823,7 +1821,7 @@
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:11">
       <c r="B27" s="2" t="str">
         <f>[1]FEATURES!$A$13</f>
         <v>FEAT-005</v>
@@ -1846,7 +1844,7 @@
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:11">
       <c r="B28" s="2" t="str">
         <f>[1]FEATURES!$A$13</f>
         <v>FEAT-005</v>
@@ -1869,7 +1867,7 @@
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
     </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:11">
       <c r="B29" s="2" t="str">
         <f>[1]FEATURES!$A$13</f>
         <v>FEAT-005</v>
@@ -1892,7 +1890,7 @@
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
     </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:11">
       <c r="B30" s="2" t="str">
         <f>[1]FEATURES!$A$13</f>
         <v>FEAT-005</v>
@@ -1915,7 +1913,7 @@
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
     </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:11">
       <c r="B31" s="2" t="str">
         <f>[1]FEATURES!$A$13</f>
         <v>FEAT-005</v>
@@ -1938,7 +1936,7 @@
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
     </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:11">
       <c r="B32" s="2" t="str">
         <f>[1]FEATURES!$A$13</f>
         <v>FEAT-005</v>
@@ -1961,7 +1959,7 @@
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:11">
       <c r="B33" s="2" t="str">
         <f>[1]FEATURES!$A$13</f>
         <v>FEAT-005</v>
@@ -1984,7 +1982,7 @@
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:11">
       <c r="B34" s="2" t="str">
         <f>[1]FEATURES!$A$13</f>
         <v>FEAT-005</v>
@@ -2007,7 +2005,7 @@
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
     </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:11">
       <c r="B35" s="2" t="str">
         <f>[1]FEATURES!$A$13</f>
         <v>FEAT-005</v>
@@ -2030,7 +2028,7 @@
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
     </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:11">
       <c r="B36" s="2" t="str">
         <f>[1]FEATURES!$A$13</f>
         <v>FEAT-005</v>
@@ -2053,7 +2051,7 @@
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:11">
       <c r="B37" s="2" t="str">
         <f>[1]FEATURES!$A$13</f>
         <v>FEAT-005</v>
@@ -2076,7 +2074,7 @@
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:11">
       <c r="B38" s="2" t="str">
         <f>[1]FEATURES!$A$13</f>
         <v>FEAT-005</v>
@@ -2099,7 +2097,7 @@
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:11">
       <c r="B39" s="2" t="str">
         <f>[1]FEATURES!$A$13</f>
         <v>FEAT-005</v>
@@ -2122,7 +2120,7 @@
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
     </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:11">
       <c r="B40" s="2" t="str">
         <f>[1]FEATURES!$A$13</f>
         <v>FEAT-005</v>
@@ -2145,7 +2143,7 @@
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
     </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:11">
       <c r="B41" s="2" t="str">
         <f>[1]FEATURES!$A$13</f>
         <v>FEAT-005</v>
@@ -2168,7 +2166,7 @@
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:11">
       <c r="B42" s="2" t="str">
         <f>[1]FEATURES!$A$13</f>
         <v>FEAT-005</v>
@@ -2191,7 +2189,7 @@
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:11">
       <c r="B43" s="2" t="str">
         <f>[1]FEATURES!$A$13</f>
         <v>FEAT-005</v>
@@ -2214,7 +2212,7 @@
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:11">
       <c r="B44" s="2" t="str">
         <f>[1]FEATURES!$A$13</f>
         <v>FEAT-005</v>
@@ -2237,7 +2235,7 @@
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:11">
       <c r="B45" s="2" t="str">
         <f>[1]FEATURES!$A$13</f>
         <v>FEAT-005</v>
@@ -2260,7 +2258,7 @@
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:11">
       <c r="B46" s="2" t="str">
         <f>[1]FEATURES!$A$13</f>
         <v>FEAT-005</v>
@@ -2283,7 +2281,7 @@
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:11">
       <c r="B47" s="2" t="str">
         <f>[1]FEATURES!$A$13</f>
         <v>FEAT-005</v>
@@ -2306,7 +2304,7 @@
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:11">
       <c r="B48" s="2" t="str">
         <f>[1]FEATURES!$A$13</f>
         <v>FEAT-005</v>
@@ -2329,7 +2327,7 @@
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
     </row>
-    <row r="49" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:11">
       <c r="B49" s="2" t="str">
         <f>[1]FEATURES!$A$13</f>
         <v>FEAT-005</v>
@@ -2352,7 +2350,7 @@
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
     </row>
-    <row r="50" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:11">
       <c r="B50" s="2" t="str">
         <f>[1]FEATURES!$A$13</f>
         <v>FEAT-005</v>
@@ -2375,7 +2373,7 @@
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
     </row>
-    <row r="51" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:11">
       <c r="B51" s="2" t="str">
         <f>[1]FEATURES!$A$13</f>
         <v>FEAT-005</v>
@@ -2398,7 +2396,7 @@
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
     </row>
-    <row r="52" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:11">
       <c r="B52" s="2" t="str">
         <f>[1]FEATURES!$A$13</f>
         <v>FEAT-005</v>
@@ -2421,7 +2419,7 @@
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
     </row>
-    <row r="53" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:11">
       <c r="B53" s="2" t="str">
         <f>[1]FEATURES!$A$13</f>
         <v>FEAT-005</v>
@@ -2444,7 +2442,7 @@
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
     </row>
-    <row r="54" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:11">
       <c r="B54" s="2" t="str">
         <f>[1]FEATURES!$A$13</f>
         <v>FEAT-005</v>
@@ -2467,7 +2465,7 @@
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
     </row>
-    <row r="55" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:11">
       <c r="B55" s="2" t="str">
         <f>[1]FEATURES!$A$13</f>
         <v>FEAT-005</v>
@@ -2490,7 +2488,7 @@
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
     </row>
-    <row r="56" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:11">
       <c r="B56" s="2" t="str">
         <f>[1]FEATURES!$A$13</f>
         <v>FEAT-005</v>
@@ -2513,7 +2511,7 @@
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
     </row>
-    <row r="57" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:11">
       <c r="B57" s="2" t="str">
         <f>[1]FEATURES!$A$13</f>
         <v>FEAT-005</v>
@@ -2536,7 +2534,7 @@
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
     </row>
-    <row r="58" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:11">
       <c r="B58" s="2" t="str">
         <f>[1]FEATURES!$A$13</f>
         <v>FEAT-005</v>
@@ -2559,7 +2557,7 @@
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
     </row>
-    <row r="59" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:11">
       <c r="B59" s="2" t="str">
         <f>[1]FEATURES!$A$13</f>
         <v>FEAT-005</v>
@@ -2582,7 +2580,7 @@
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
     </row>
-    <row r="60" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:11">
       <c r="B60" s="2" t="str">
         <f>[1]FEATURES!$A$13</f>
         <v>FEAT-005</v>
@@ -2605,7 +2603,7 @@
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
     </row>
-    <row r="61" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:11">
       <c r="B61" s="2" t="str">
         <f>[1]FEATURES!$A$13</f>
         <v>FEAT-005</v>
@@ -2628,7 +2626,7 @@
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
     </row>
-    <row r="62" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:11">
       <c r="B62" s="2" t="str">
         <f>[1]FEATURES!$A$13</f>
         <v>FEAT-005</v>
@@ -2651,7 +2649,7 @@
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
     </row>
-    <row r="63" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:11">
       <c r="B63" s="2" t="str">
         <f>[1]FEATURES!$A$13</f>
         <v>FEAT-005</v>
@@ -2674,7 +2672,7 @@
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
     </row>
-    <row r="64" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:11">
       <c r="B64" s="2" t="str">
         <f>[1]FEATURES!$A$13</f>
         <v>FEAT-005</v>
@@ -2697,7 +2695,7 @@
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
     </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:11">
       <c r="B65" s="2" t="str">
         <f>[1]FEATURES!$A$13</f>
         <v>FEAT-005</v>
@@ -2720,7 +2718,7 @@
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
     </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:11">
       <c r="B66" s="2" t="str">
         <f>[1]FEATURES!$A$13</f>
         <v>FEAT-005</v>
@@ -2743,7 +2741,7 @@
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:11">
       <c r="B67" s="2" t="str">
         <f>[1]FEATURES!$A$13</f>
         <v>FEAT-005</v>
@@ -2766,7 +2764,7 @@
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
     </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:11">
       <c r="B68" s="2" t="str">
         <f>[1]FEATURES!$A$13</f>
         <v>FEAT-005</v>
@@ -2789,7 +2787,7 @@
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
     </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:11">
       <c r="B69" s="2" t="str">
         <f>[1]FEATURES!$A$13</f>
         <v>FEAT-005</v>
@@ -2812,7 +2810,7 @@
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
     </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:11">
       <c r="B70" s="2" t="str">
         <f>[1]FEATURES!$A$13</f>
         <v>FEAT-005</v>
@@ -2835,7 +2833,7 @@
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
     </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:11">
       <c r="B71" s="2" t="str">
         <f>[1]FEATURES!$A$13</f>
         <v>FEAT-005</v>
@@ -2858,7 +2856,7 @@
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
     </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:11">
       <c r="B72" s="2" t="str">
         <f>[1]FEATURES!$A$13</f>
         <v>FEAT-005</v>
@@ -2881,7 +2879,7 @@
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:11">
       <c r="B73" s="2" t="str">
         <f>[1]FEATURES!$A$13</f>
         <v>FEAT-005</v>
@@ -2904,7 +2902,7 @@
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
     </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:11">
       <c r="B74" s="2" t="str">
         <f>[1]FEATURES!$A$13</f>
         <v>FEAT-005</v>
@@ -2927,7 +2925,7 @@
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
     </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:11">
       <c r="B75" s="2" t="str">
         <f>[1]FEATURES!$A$84</f>
         <v>FEAT-006</v>
@@ -2950,7 +2948,7 @@
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
     </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:11">
       <c r="B76" s="2" t="str">
         <f>[1]FEATURES!$A$84</f>
         <v>FEAT-006</v>
@@ -2973,7 +2971,7 @@
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:11">
       <c r="B77" s="2" t="str">
         <f>[1]FEATURES!$A$84</f>
         <v>FEAT-006</v>
@@ -2996,7 +2994,7 @@
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
     </row>
-    <row r="78" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:11">
       <c r="B78" s="2" t="str">
         <f>[1]FEATURES!$A$84</f>
         <v>FEAT-006</v>
@@ -3019,7 +3017,7 @@
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
     </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:11">
       <c r="B79" s="2" t="str">
         <f>[1]FEATURES!$A$84</f>
         <v>FEAT-006</v>
@@ -3042,7 +3040,7 @@
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:11">
       <c r="B80" s="2" t="str">
         <f>[1]FEATURES!$A$84</f>
         <v>FEAT-006</v>
@@ -3077,33 +3075,33 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B3:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="1.28515625" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" customWidth="1"/>
-    <col min="4" max="4" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="1.33203125" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" customWidth="1"/>
+    <col min="3" max="3" width="19.5546875" customWidth="1"/>
+    <col min="4" max="4" width="22.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="14" t="s">
+    <row r="3" spans="2:4">
+      <c r="B3" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:4">
       <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
@@ -3112,16 +3110,16 @@
       </c>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:4">
       <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="13"/>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D5" s="10"/>
+    </row>
+    <row r="6" spans="2:4">
       <c r="B6" s="2" t="s">
         <v>13</v>
       </c>
@@ -3130,7 +3128,7 @@
       </c>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:4">
       <c r="B7" s="2" t="s">
         <v>13</v>
       </c>
@@ -3139,7 +3137,7 @@
       </c>
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:4">
       <c r="B8" s="2" t="s">
         <v>14</v>
       </c>
@@ -3148,7 +3146,7 @@
       </c>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:4">
       <c r="B9" s="2" t="s">
         <v>14</v>
       </c>
@@ -3157,7 +3155,7 @@
       </c>
       <c r="D9" s="2"/>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:4">
       <c r="B10" s="2" t="s">
         <v>15</v>
       </c>
